--- a/datos123.xlsx
+++ b/datos123.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,21 @@
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -94,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,9 +228,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -257,7 +268,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -363,7 +374,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -519,20 +530,20 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.54296875" style="2"/>
-    <col min="4" max="4" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" style="2"/>
+    <col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.54296875" style="2"/>
+    <col min="10" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" s="3">
         <v>45826</v>
       </c>
@@ -590,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>45826</v>
       </c>
@@ -619,7 +630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>45826</v>
       </c>
@@ -648,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>45826</v>
       </c>
@@ -677,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>45826</v>
       </c>
@@ -706,7 +717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>45826</v>
       </c>
@@ -735,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>45826</v>
       </c>
@@ -764,7 +775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>45826</v>
       </c>
@@ -793,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>45826</v>
       </c>
@@ -822,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <v>45826</v>
       </c>
@@ -851,7 +862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>45826</v>
       </c>
@@ -880,7 +891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="A13" s="5">
         <v>45826</v>
       </c>
@@ -909,7 +920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>45826</v>
       </c>
@@ -938,7 +949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <v>45826</v>
       </c>
@@ -967,7 +978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>45826</v>
       </c>
@@ -996,7 +1007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>45826</v>
       </c>
@@ -1025,7 +1036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>45826</v>
       </c>
@@ -1054,7 +1065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="A19" s="5">
         <v>45826</v>
       </c>
@@ -1083,7 +1094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>45826</v>
       </c>
@@ -1112,7 +1123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9">
       <c r="A21" s="5">
         <v>45826</v>
       </c>
@@ -1141,7 +1152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>45826</v>
       </c>
@@ -1170,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9">
       <c r="A23" s="5">
         <v>45826</v>
       </c>
@@ -1199,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>45826</v>
       </c>
@@ -1228,7 +1239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9">
       <c r="A25" s="5">
         <v>45826</v>
       </c>
@@ -1257,7 +1268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9">
       <c r="A26" s="3">
         <v>45826</v>
       </c>
@@ -1286,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9">
       <c r="A27" s="5">
         <v>45826</v>
       </c>
@@ -1315,7 +1326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9">
       <c r="A28" s="3">
         <v>45826</v>
       </c>
@@ -1344,7 +1355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9">
       <c r="A29" s="5">
         <v>45826</v>
       </c>
@@ -1373,7 +1384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9">
       <c r="A30" s="3">
         <v>45826</v>
       </c>
@@ -1402,7 +1413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9">
       <c r="A31" s="5">
         <v>45826</v>
       </c>
@@ -1431,7 +1442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9">
       <c r="A32" s="3">
         <v>45826</v>
       </c>
@@ -1460,7 +1471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9">
       <c r="A33" s="5">
         <v>45826</v>
       </c>
@@ -1489,7 +1500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9">
       <c r="A34" s="3">
         <v>45826</v>
       </c>
@@ -1518,7 +1529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9">
       <c r="A35" s="5">
         <v>45826</v>
       </c>
@@ -1547,7 +1558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9">
       <c r="A36" s="3">
         <v>45826</v>
       </c>
@@ -1576,7 +1587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9">
       <c r="A37" s="5">
         <v>45826</v>
       </c>
@@ -1605,7 +1616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9">
       <c r="A38" s="3">
         <v>45826</v>
       </c>
@@ -1634,7 +1645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9">
       <c r="A39" s="5">
         <v>45826</v>
       </c>
@@ -1663,7 +1674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9">
       <c r="A40" s="3">
         <v>45826</v>
       </c>
@@ -1692,7 +1703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9">
       <c r="A41" s="5">
         <v>45826</v>
       </c>
@@ -1721,7 +1732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9">
       <c r="A42" s="3">
         <v>45826</v>
       </c>
@@ -1750,7 +1761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9">
       <c r="A43" s="5">
         <v>45826</v>
       </c>
@@ -1779,7 +1790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9">
       <c r="A44" s="3">
         <v>45826</v>
       </c>
@@ -1808,7 +1819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9">
       <c r="A45" s="5">
         <v>45826</v>
       </c>
@@ -1837,7 +1848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9">
       <c r="A46" s="3">
         <v>45826</v>
       </c>
@@ -1866,7 +1877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9">
       <c r="A47" s="5">
         <v>45826</v>
       </c>
@@ -1895,7 +1906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9">
       <c r="A48" s="3">
         <v>45826</v>
       </c>
@@ -1924,7 +1935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9">
       <c r="A49" s="5">
         <v>45826</v>
       </c>
@@ -1953,7 +1964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9">
       <c r="A50" s="3">
         <v>45826</v>
       </c>
@@ -1982,7 +1993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9">
       <c r="A51" s="5">
         <v>45826</v>
       </c>
@@ -2011,7 +2022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9">
       <c r="A52" s="3">
         <v>45826</v>
       </c>
@@ -2040,7 +2051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9">
       <c r="A53" s="5">
         <v>45826</v>
       </c>
@@ -2069,7 +2080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9">
       <c r="A54" s="3">
         <v>45826</v>
       </c>
@@ -2098,7 +2109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9">
       <c r="A55" s="5">
         <v>45826</v>
       </c>
@@ -2127,7 +2138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9">
       <c r="A56" s="3">
         <v>45826</v>
       </c>
@@ -2156,7 +2167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9">
       <c r="A57" s="5">
         <v>45826</v>
       </c>
@@ -2185,7 +2196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9">
       <c r="A58" s="3">
         <v>45826</v>
       </c>
@@ -2214,7 +2225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9">
       <c r="A59" s="5">
         <v>45826</v>
       </c>
@@ -2243,7 +2254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9">
       <c r="A60" s="3">
         <v>45826</v>
       </c>
@@ -2272,7 +2283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9">
       <c r="A61" s="5">
         <v>45826</v>
       </c>
@@ -2301,7 +2312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9">
       <c r="A62" s="3">
         <v>45826</v>
       </c>
@@ -2330,7 +2341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9">
       <c r="A63" s="5">
         <v>45826</v>
       </c>
@@ -2359,7 +2370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9">
       <c r="A64" s="3">
         <v>45826</v>
       </c>
@@ -2388,7 +2399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9">
       <c r="A65" s="5">
         <v>45826</v>
       </c>
@@ -2417,7 +2428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9">
       <c r="A66" s="3">
         <v>45826</v>
       </c>
@@ -2446,7 +2457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9">
       <c r="A67" s="5">
         <v>45826</v>
       </c>
@@ -2475,7 +2486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9">
       <c r="A68" s="3">
         <v>45826</v>
       </c>
@@ -2504,7 +2515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9">
       <c r="A69" s="5">
         <v>45826</v>
       </c>
@@ -2533,7 +2544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>45826</v>
       </c>
@@ -2562,7 +2573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9">
       <c r="A71" s="5">
         <v>45826</v>
       </c>
@@ -2591,7 +2602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9">
       <c r="A72" s="3">
         <v>45826</v>
       </c>
@@ -2620,7 +2631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9">
       <c r="A73" s="5">
         <v>45826</v>
       </c>
@@ -2649,7 +2660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9">
       <c r="A74" s="3">
         <v>45826</v>
       </c>
@@ -2678,7 +2689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9">
       <c r="A75" s="5">
         <v>45826</v>
       </c>
@@ -2707,7 +2718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9">
       <c r="A76" s="3">
         <v>45826</v>
       </c>
@@ -2736,7 +2747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9">
       <c r="A77" s="5">
         <v>45826</v>
       </c>
@@ -2765,7 +2776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9">
       <c r="A78" s="3">
         <v>45826</v>
       </c>
@@ -2794,7 +2805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9">
       <c r="A79" s="5">
         <v>45826</v>
       </c>
@@ -2823,7 +2834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>45826</v>
       </c>
@@ -2852,7 +2863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9">
       <c r="A81" s="5">
         <v>45826</v>
       </c>
@@ -2881,7 +2892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9">
       <c r="A82" s="3">
         <v>45826</v>
       </c>
@@ -2910,7 +2921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9">
       <c r="A83" s="5">
         <v>45826</v>
       </c>
@@ -2939,7 +2950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9">
       <c r="A84" s="3">
         <v>45826</v>
       </c>
@@ -2968,7 +2979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9">
       <c r="A85" s="5">
         <v>45826</v>
       </c>
@@ -2997,7 +3008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9">
       <c r="A86" s="3">
         <v>45826</v>
       </c>
@@ -3026,7 +3037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9">
       <c r="A87" s="5">
         <v>45826</v>
       </c>
@@ -3055,7 +3066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9">
       <c r="A88" s="3">
         <v>45826</v>
       </c>
@@ -3084,7 +3095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9">
       <c r="A89" s="5">
         <v>45826</v>
       </c>
@@ -3113,7 +3124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9">
       <c r="A90" s="3">
         <v>45826</v>
       </c>
@@ -3142,7 +3153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9">
       <c r="A91" s="5">
         <v>45826</v>
       </c>
@@ -3171,7 +3182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9">
       <c r="A92" s="3">
         <v>45826</v>
       </c>
@@ -3200,7 +3211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9">
       <c r="A93" s="5">
         <v>45826</v>
       </c>
@@ -3229,7 +3240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9">
       <c r="A94" s="3">
         <v>45826</v>
       </c>
@@ -3258,7 +3269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9">
       <c r="A95" s="5">
         <v>45826</v>
       </c>
@@ -3287,7 +3298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9">
       <c r="A96" s="3">
         <v>45826</v>
       </c>
@@ -3316,7 +3327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9">
       <c r="A97" s="5">
         <v>45826</v>
       </c>
@@ -3345,7 +3356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9">
       <c r="A98" s="8">
         <v>45833</v>
       </c>
@@ -3374,7 +3385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9">
       <c r="A99" s="5">
         <v>45833</v>
       </c>
@@ -3403,7 +3414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9">
       <c r="A100" s="8">
         <v>45833</v>
       </c>
@@ -3432,7 +3443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9">
       <c r="A101" s="5">
         <v>45833</v>
       </c>
@@ -3461,7 +3472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9">
       <c r="A102" s="8">
         <v>45833</v>
       </c>
@@ -3490,7 +3501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9">
       <c r="A103" s="5">
         <v>45833</v>
       </c>
@@ -3519,7 +3530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9">
       <c r="A104" s="8">
         <v>45833</v>
       </c>
@@ -3548,7 +3559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9">
       <c r="A105" s="5">
         <v>45833</v>
       </c>
@@ -3577,7 +3588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9">
       <c r="A106" s="8">
         <v>45833</v>
       </c>
@@ -3606,7 +3617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9">
       <c r="A107" s="5">
         <v>45833</v>
       </c>
@@ -3635,7 +3646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9">
       <c r="A108" s="8">
         <v>45833</v>
       </c>
@@ -3664,7 +3675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9">
       <c r="A109" s="5">
         <v>45833</v>
       </c>
@@ -3693,7 +3704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9">
       <c r="A110" s="8">
         <v>45833</v>
       </c>
@@ -3722,7 +3733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9">
       <c r="A111" s="5">
         <v>45833</v>
       </c>
@@ -3751,7 +3762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9">
       <c r="A112" s="8">
         <v>45833</v>
       </c>
@@ -3780,7 +3791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9">
       <c r="A113" s="5">
         <v>45833</v>
       </c>
@@ -3809,7 +3820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9">
       <c r="A114" s="8">
         <v>45833</v>
       </c>
@@ -3838,7 +3849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9">
       <c r="A115" s="5">
         <v>45833</v>
       </c>
@@ -3867,7 +3878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9">
       <c r="A116" s="8">
         <v>45833</v>
       </c>
@@ -3896,7 +3907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9">
       <c r="A117" s="5">
         <v>45833</v>
       </c>
@@ -3925,7 +3936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9">
       <c r="A118" s="8">
         <v>45833</v>
       </c>
@@ -3954,7 +3965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9">
       <c r="A119" s="5">
         <v>45833</v>
       </c>
@@ -3983,7 +3994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9">
       <c r="A120" s="8">
         <v>45833</v>
       </c>
@@ -4012,7 +4023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9">
       <c r="A121" s="5">
         <v>45833</v>
       </c>
@@ -4041,7 +4052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9">
       <c r="A122" s="8">
         <v>45833</v>
       </c>
@@ -4070,7 +4081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9">
       <c r="A123" s="5">
         <v>45833</v>
       </c>
@@ -4099,7 +4110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9">
       <c r="A124" s="8">
         <v>45833</v>
       </c>
@@ -4128,7 +4139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9">
       <c r="A125" s="5">
         <v>45833</v>
       </c>
@@ -4157,7 +4168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9">
       <c r="A126" s="8">
         <v>45833</v>
       </c>
@@ -4186,7 +4197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9">
       <c r="A127" s="5">
         <v>45833</v>
       </c>
@@ -4215,7 +4226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9">
       <c r="A128" s="8">
         <v>45833</v>
       </c>
@@ -4244,7 +4255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9">
       <c r="A129" s="5">
         <v>45833</v>
       </c>
@@ -4273,7 +4284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9">
       <c r="A130" s="8">
         <v>45833</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9">
       <c r="A131" s="5">
         <v>45833</v>
       </c>
@@ -4331,7 +4342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9">
       <c r="A132" s="8">
         <v>45833</v>
       </c>
@@ -4360,7 +4371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9">
       <c r="A133" s="5">
         <v>45833</v>
       </c>
@@ -4389,7 +4400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9">
       <c r="A134" s="8">
         <v>45833</v>
       </c>
@@ -4418,7 +4429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9">
       <c r="A135" s="5">
         <v>45833</v>
       </c>
@@ -4447,7 +4458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9">
       <c r="A136" s="8">
         <v>45833</v>
       </c>
@@ -4476,7 +4487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9">
       <c r="A137" s="5">
         <v>45833</v>
       </c>
@@ -4505,7 +4516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9">
       <c r="A138" s="8">
         <v>45833</v>
       </c>
@@ -4534,7 +4545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9">
       <c r="A139" s="5">
         <v>45833</v>
       </c>
@@ -4563,7 +4574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9">
       <c r="A140" s="8">
         <v>45833</v>
       </c>
@@ -4592,7 +4603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9">
       <c r="A141" s="5">
         <v>45833</v>
       </c>
@@ -4621,7 +4632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9">
       <c r="A142" s="8">
         <v>45833</v>
       </c>
@@ -4650,7 +4661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9">
       <c r="A143" s="5">
         <v>45833</v>
       </c>
@@ -4679,7 +4690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9">
       <c r="A144" s="8">
         <v>45833</v>
       </c>
@@ -4708,7 +4719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9">
       <c r="A145" s="5">
         <v>45833</v>
       </c>
@@ -4737,7 +4748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9">
       <c r="A146" s="8">
         <v>45833</v>
       </c>
@@ -4766,7 +4777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9">
       <c r="A147" s="5">
         <v>45833</v>
       </c>
@@ -4795,7 +4806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9">
       <c r="A148" s="8">
         <v>45833</v>
       </c>
@@ -4824,7 +4835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9">
       <c r="A149" s="5">
         <v>45833</v>
       </c>
@@ -4853,7 +4864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9">
       <c r="A150" s="8">
         <v>45833</v>
       </c>
@@ -4882,7 +4893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9">
       <c r="A151" s="5">
         <v>45833</v>
       </c>
@@ -4911,7 +4922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9">
       <c r="A152" s="8">
         <v>45833</v>
       </c>
@@ -4940,7 +4951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9">
       <c r="A153" s="5">
         <v>45833</v>
       </c>
@@ -4969,7 +4980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9">
       <c r="A154" s="8">
         <v>45833</v>
       </c>
@@ -4998,7 +5009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9">
       <c r="A155" s="5">
         <v>45833</v>
       </c>
@@ -5027,7 +5038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9">
       <c r="A156" s="8">
         <v>45833</v>
       </c>
@@ -5056,7 +5067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9">
       <c r="A157" s="5">
         <v>45833</v>
       </c>
@@ -5085,7 +5096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9">
       <c r="A158" s="8">
         <v>45833</v>
       </c>
@@ -5114,7 +5125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9">
       <c r="A159" s="5">
         <v>45833</v>
       </c>
@@ -5143,7 +5154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9">
       <c r="A160" s="8">
         <v>45833</v>
       </c>
@@ -5172,7 +5183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9">
       <c r="A161" s="5">
         <v>45833</v>
       </c>
@@ -5201,7 +5212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9">
       <c r="A162" s="8">
         <v>45833</v>
       </c>
@@ -5230,7 +5241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9">
       <c r="A163" s="5">
         <v>45833</v>
       </c>
@@ -5259,7 +5270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9">
       <c r="A164" s="8">
         <v>45833</v>
       </c>
@@ -5288,7 +5299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9">
       <c r="A165" s="5">
         <v>45833</v>
       </c>
@@ -5317,7 +5328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9">
       <c r="A166" s="8">
         <v>45833</v>
       </c>
@@ -5346,7 +5357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9">
       <c r="A167" s="5">
         <v>45833</v>
       </c>
@@ -5375,7 +5386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9">
       <c r="A168" s="8">
         <v>45833</v>
       </c>
@@ -5404,7 +5415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9">
       <c r="A169" s="5">
         <v>45833</v>
       </c>
@@ -5433,7 +5444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9">
       <c r="A170" s="8">
         <v>45833</v>
       </c>
@@ -5462,7 +5473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9">
       <c r="A171" s="5">
         <v>45833</v>
       </c>
@@ -5491,7 +5502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9">
       <c r="A172" s="8">
         <v>45833</v>
       </c>
@@ -5520,7 +5531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9">
       <c r="A173" s="5">
         <v>45833</v>
       </c>
@@ -5549,7 +5560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9">
       <c r="A174" s="8">
         <v>45833</v>
       </c>
@@ -5578,7 +5589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9">
       <c r="A175" s="5">
         <v>45833</v>
       </c>
@@ -5607,7 +5618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9">
       <c r="A176" s="8">
         <v>45833</v>
       </c>
@@ -5636,7 +5647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9">
       <c r="A177" s="5">
         <v>45833</v>
       </c>
@@ -5665,7 +5676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9">
       <c r="A178" s="8">
         <v>45833</v>
       </c>
@@ -5694,7 +5705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9">
       <c r="A179" s="5">
         <v>45833</v>
       </c>
@@ -5723,7 +5734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9">
       <c r="A180" s="8">
         <v>45833</v>
       </c>
@@ -5752,7 +5763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9">
       <c r="A181" s="5">
         <v>45833</v>
       </c>
@@ -5781,7 +5792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9">
       <c r="A182" s="8">
         <v>45833</v>
       </c>
@@ -5810,7 +5821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9">
       <c r="A183" s="5">
         <v>45833</v>
       </c>
@@ -5839,7 +5850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9">
       <c r="A184" s="8">
         <v>45833</v>
       </c>
@@ -5868,7 +5879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9">
       <c r="A185" s="5">
         <v>45833</v>
       </c>
@@ -5897,7 +5908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9">
       <c r="A186" s="8">
         <v>45833</v>
       </c>
@@ -5926,7 +5937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9">
       <c r="A187" s="5">
         <v>45833</v>
       </c>
@@ -5955,7 +5966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9">
       <c r="A188" s="8">
         <v>45833</v>
       </c>
@@ -5984,7 +5995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9">
       <c r="A189" s="5">
         <v>45833</v>
       </c>
@@ -6013,7 +6024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9">
       <c r="A190" s="8">
         <v>45833</v>
       </c>
@@ -6042,7 +6053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9">
       <c r="A191" s="5">
         <v>45833</v>
       </c>
@@ -6071,7 +6082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9">
       <c r="A192" s="8">
         <v>45833</v>
       </c>
@@ -6100,7 +6111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9">
       <c r="A193" s="5">
         <v>45833</v>
       </c>
@@ -6129,7 +6140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9">
       <c r="A194" s="3">
         <v>45839</v>
       </c>
@@ -6158,7 +6169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9">
       <c r="A195" s="5">
         <v>45839</v>
       </c>
@@ -6187,7 +6198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9">
       <c r="A196" s="3">
         <v>45839</v>
       </c>
@@ -6216,7 +6227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9">
       <c r="A197" s="5">
         <v>45839</v>
       </c>
@@ -6245,7 +6256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9">
       <c r="A198" s="3">
         <v>45839</v>
       </c>
@@ -6274,7 +6285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9">
       <c r="A199" s="5">
         <v>45839</v>
       </c>
@@ -6303,7 +6314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9">
       <c r="A200" s="3">
         <v>45839</v>
       </c>
@@ -6332,7 +6343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9">
       <c r="A201" s="5">
         <v>45839</v>
       </c>
@@ -6361,7 +6372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9">
       <c r="A202" s="3">
         <v>45839</v>
       </c>
@@ -6390,7 +6401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9">
       <c r="A203" s="5">
         <v>45839</v>
       </c>
@@ -6419,7 +6430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9">
       <c r="A204" s="3">
         <v>45839</v>
       </c>
@@ -6448,7 +6459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9">
       <c r="A205" s="5">
         <v>45839</v>
       </c>
@@ -6477,7 +6488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9">
       <c r="A206" s="3">
         <v>45839</v>
       </c>
@@ -6506,7 +6517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9">
       <c r="A207" s="5">
         <v>45839</v>
       </c>
@@ -6535,7 +6546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9">
       <c r="A208" s="3">
         <v>45839</v>
       </c>
@@ -6564,7 +6575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9">
       <c r="A209" s="5">
         <v>45839</v>
       </c>
@@ -6593,7 +6604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9">
       <c r="A210" s="3">
         <v>45839</v>
       </c>
@@ -6622,7 +6633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9">
       <c r="A211" s="5">
         <v>45839</v>
       </c>
@@ -6651,7 +6662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9">
       <c r="A212" s="3">
         <v>45839</v>
       </c>
@@ -6680,7 +6691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9">
       <c r="A213" s="5">
         <v>45839</v>
       </c>
@@ -6709,7 +6720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9">
       <c r="A214" s="3">
         <v>45839</v>
       </c>
@@ -6738,7 +6749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9">
       <c r="A215" s="5">
         <v>45839</v>
       </c>
@@ -6767,7 +6778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9">
       <c r="A216" s="3">
         <v>45839</v>
       </c>
@@ -6796,7 +6807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9">
       <c r="A217" s="5">
         <v>45839</v>
       </c>
@@ -6825,7 +6836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9">
       <c r="A218" s="3">
         <v>45839</v>
       </c>
@@ -6854,7 +6865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9">
       <c r="A219" s="5">
         <v>45839</v>
       </c>
@@ -6883,7 +6894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9">
       <c r="A220" s="3">
         <v>45839</v>
       </c>
@@ -6912,7 +6923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9">
       <c r="A221" s="5">
         <v>45839</v>
       </c>
@@ -6941,7 +6952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9">
       <c r="A222" s="3">
         <v>45839</v>
       </c>
@@ -6970,7 +6981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9">
       <c r="A223" s="5">
         <v>45839</v>
       </c>
@@ -6999,7 +7010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9">
       <c r="A224" s="3">
         <v>45839</v>
       </c>
@@ -7028,7 +7039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9">
       <c r="A225" s="5">
         <v>45839</v>
       </c>
@@ -7057,7 +7068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9">
       <c r="A226" s="3">
         <v>45839</v>
       </c>
@@ -7086,7 +7097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9">
       <c r="A227" s="5">
         <v>45839</v>
       </c>
@@ -7115,7 +7126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9">
       <c r="A228" s="3">
         <v>45839</v>
       </c>
@@ -7144,7 +7155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9">
       <c r="A229" s="5">
         <v>45839</v>
       </c>
@@ -7173,7 +7184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9">
       <c r="A230" s="3">
         <v>45839</v>
       </c>
@@ -7202,7 +7213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9">
       <c r="A231" s="5">
         <v>45839</v>
       </c>
@@ -7231,7 +7242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9">
       <c r="A232" s="3">
         <v>45839</v>
       </c>
@@ -7260,7 +7271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9">
       <c r="A233" s="5">
         <v>45839</v>
       </c>
@@ -7289,7 +7300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9">
       <c r="A234" s="3">
         <v>45839</v>
       </c>
@@ -7318,7 +7329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9">
       <c r="A235" s="5">
         <v>45839</v>
       </c>
@@ -7347,7 +7358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9">
       <c r="A236" s="3">
         <v>45839</v>
       </c>
@@ -7376,7 +7387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9">
       <c r="A237" s="5">
         <v>45839</v>
       </c>
@@ -7405,7 +7416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9">
       <c r="A238" s="3">
         <v>45839</v>
       </c>
@@ -7434,7 +7445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9">
       <c r="A239" s="5">
         <v>45839</v>
       </c>
@@ -7463,7 +7474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9">
       <c r="A240" s="3">
         <v>45839</v>
       </c>
@@ -7492,7 +7503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9">
       <c r="A241" s="5">
         <v>45839</v>
       </c>
@@ -7521,7 +7532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9">
       <c r="A242" s="3">
         <v>45839</v>
       </c>
@@ -7550,7 +7561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9">
       <c r="A243" s="5">
         <v>45839</v>
       </c>
@@ -7579,7 +7590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9">
       <c r="A244" s="3">
         <v>45839</v>
       </c>
@@ -7608,7 +7619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9">
       <c r="A245" s="5">
         <v>45839</v>
       </c>
@@ -7637,7 +7648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9">
       <c r="A246" s="3">
         <v>45839</v>
       </c>
@@ -7666,7 +7677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9">
       <c r="A247" s="5">
         <v>45839</v>
       </c>
@@ -7695,7 +7706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9">
       <c r="A248" s="3">
         <v>45839</v>
       </c>
@@ -7724,7 +7735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9">
       <c r="A249" s="5">
         <v>45839</v>
       </c>
@@ -7753,7 +7764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9">
       <c r="A250" s="3">
         <v>45839</v>
       </c>
@@ -7782,7 +7793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9">
       <c r="A251" s="5">
         <v>45839</v>
       </c>
@@ -7811,7 +7822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9">
       <c r="A252" s="3">
         <v>45839</v>
       </c>
@@ -7840,7 +7851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9">
       <c r="A253" s="5">
         <v>45839</v>
       </c>
@@ -7869,7 +7880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9">
       <c r="A254" s="3">
         <v>45839</v>
       </c>
@@ -7898,7 +7909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9">
       <c r="A255" s="5">
         <v>45839</v>
       </c>
@@ -7927,7 +7938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9">
       <c r="A256" s="3">
         <v>45839</v>
       </c>
@@ -7956,7 +7967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9">
       <c r="A257" s="5">
         <v>45839</v>
       </c>
@@ -7985,7 +7996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9">
       <c r="A258" s="3">
         <v>45839</v>
       </c>
@@ -8014,7 +8025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9">
       <c r="A259" s="5">
         <v>45839</v>
       </c>
@@ -8043,7 +8054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9">
       <c r="A260" s="3">
         <v>45839</v>
       </c>
@@ -8072,7 +8083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9">
       <c r="A261" s="5">
         <v>45839</v>
       </c>
@@ -8101,7 +8112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9">
       <c r="A262" s="3">
         <v>45839</v>
       </c>
@@ -8130,7 +8141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9">
       <c r="A263" s="5">
         <v>45839</v>
       </c>
@@ -8159,7 +8170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9">
       <c r="A264" s="3">
         <v>45839</v>
       </c>
@@ -8188,7 +8199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9">
       <c r="A265" s="5">
         <v>45839</v>
       </c>
@@ -8217,7 +8228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9">
       <c r="A266" s="3">
         <v>45839</v>
       </c>
@@ -8246,7 +8257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9">
       <c r="A267" s="5">
         <v>45839</v>
       </c>
@@ -8275,7 +8286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9">
       <c r="A268" s="3">
         <v>45839</v>
       </c>
@@ -8304,7 +8315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9">
       <c r="A269" s="5">
         <v>45839</v>
       </c>
@@ -8333,7 +8344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9">
       <c r="A270" s="3">
         <v>45839</v>
       </c>
@@ -8362,7 +8373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9">
       <c r="A271" s="5">
         <v>45839</v>
       </c>
@@ -8391,7 +8402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9">
       <c r="A272" s="3">
         <v>45839</v>
       </c>
@@ -8420,7 +8431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9">
       <c r="A273" s="5">
         <v>45839</v>
       </c>
@@ -8449,7 +8460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9">
       <c r="A274" s="3">
         <v>45839</v>
       </c>
@@ -8478,7 +8489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9">
       <c r="A275" s="5">
         <v>45839</v>
       </c>
@@ -8507,7 +8518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9">
       <c r="A276" s="3">
         <v>45839</v>
       </c>
@@ -8536,7 +8547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9">
       <c r="A277" s="5">
         <v>45839</v>
       </c>
@@ -8565,7 +8576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9">
       <c r="A278" s="3">
         <v>45839</v>
       </c>
@@ -8594,7 +8605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9">
       <c r="A279" s="5">
         <v>45839</v>
       </c>
@@ -8623,7 +8634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9">
       <c r="A280" s="3">
         <v>45839</v>
       </c>
@@ -8652,7 +8663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9">
       <c r="A281" s="5">
         <v>45839</v>
       </c>
@@ -8681,7 +8692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9">
       <c r="A282" s="3">
         <v>45839</v>
       </c>
@@ -8710,7 +8721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9">
       <c r="A283" s="5">
         <v>45839</v>
       </c>
@@ -8739,7 +8750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9">
       <c r="A284" s="3">
         <v>45839</v>
       </c>
@@ -8768,7 +8779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9">
       <c r="A285" s="5">
         <v>45839</v>
       </c>
@@ -8797,7 +8808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9">
       <c r="A286" s="3">
         <v>45839</v>
       </c>
@@ -8826,7 +8837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9">
       <c r="A287" s="5">
         <v>45839</v>
       </c>
@@ -8855,7 +8866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9">
       <c r="A288" s="3">
         <v>45839</v>
       </c>
@@ -8884,7 +8895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9">
       <c r="A289" s="5">
         <v>45839</v>
       </c>
